--- a/aimms_model/energy_hub/results/NetMetering/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/NetMetering/results_costs.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
-  <si>
-    <t>Electric_boiler</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>Gas_CHP</t>
   </si>
@@ -389,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>36192.078682714076</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -408,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4761.9869664505486</v>
+        <v>104121.56698515784</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -416,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9846.0612548035824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,14 +440,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -458,7 +447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -469,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4.6174097453840419</v>
+        <v>6916.3062362667724</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>910.01570928863794</v>
+        <v>10874.919218450003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1028.3663977239476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>31336.456223487592</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,14 +501,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -527,7 +508,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>226.56652893943181</v>
+        <v>6474.830691193004</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>861.74033557482937</v>
+        <v>35345.246760457267</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2956.8876025955187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>76114.007979724091</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,14 +562,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -596,7 +569,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -607,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>231.18393868481584</v>
+        <v>49583.215610173851</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6533.7430113140163</v>
+        <v>150341.7329640651</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13831.315255123049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>107450.46420321168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,14 +623,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -673,7 +638,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>24780.877270256464</v>
+        <v>143167.96235087828</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>24780.877270256464</v>
+        <v>143167.96235087828</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +674,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -717,15 +682,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>415.32141160606903</v>
+        <v>3656.9132202519372</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -746,7 +711,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -754,15 +719,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>415.32141160606903</v>
+        <v>3656.9132202519372</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>

--- a/aimms_model/energy_hub/results/NetMetering/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/NetMetering/results_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="17175" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="11820" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Operating_cost_per_technology" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>36192.078682714076</v>
+        <v>180960.39341357036</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>104121.56698515784</v>
+        <v>520607.8349259934</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>6916.3062362667724</v>
+        <v>34581.531181325721</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10874.919218450003</v>
+        <v>54374.596092271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>31336.456223487592</v>
+        <v>156682.28111743831</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>6474.830691193004</v>
+        <v>32374.153455964999</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>35345.246760457267</v>
+        <v>176726.2338022863</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>76114.007979724091</v>
+        <v>380570.03989862051</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>49583.215610173851</v>
+        <v>247916.07805086108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>150341.7329640651</v>
+        <v>751708.66482055071</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>107450.46420321168</v>
+        <v>537252.32101605879</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>143167.96235087828</v>
+        <v>715839.81187647232</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>143167.96235087828</v>
+        <v>715839.81187647232</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3656.9132202519372</v>
+        <v>18284.566101259672</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3656.9132202519372</v>
+        <v>18284.566101259672</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/aimms_model/energy_hub/results/NetMetering/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/NetMetering/results_costs.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>180960.39341357036</v>
+        <v>331442.21146199253</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>520607.8349259934</v>
+        <v>443658.03248531953</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>34581.531181325721</v>
+        <v>63338.60661039687</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>54374.596092271</v>
+        <v>46337.616726243163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>32374.153455964999</v>
+        <v>54284.794660397274</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>176726.2338022863</v>
+        <v>154919.76333668528</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>247916.07805086108</v>
+        <v>449065.61273278669</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>751708.66482055071</v>
+        <v>644915.41254824796</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>715839.81187647232</v>
+        <v>608496.11500192538</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>715839.81187647232</v>
+        <v>608496.11500192538</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>18284.566101259672</v>
+        <v>27873.041618610339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>18284.566101259672</v>
+        <v>27873.041618610339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
